--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.822863000000001</v>
+        <v>5.804872666666667</v>
       </c>
       <c r="H2">
-        <v>14.468589</v>
+        <v>17.414618</v>
       </c>
       <c r="I2">
-        <v>0.01095411591491635</v>
+        <v>0.01255943365345522</v>
       </c>
       <c r="J2">
-        <v>0.0112404931114524</v>
+        <v>0.01307355317809625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N2">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O2">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P2">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q2">
-        <v>1.725297249579</v>
+        <v>2.755178323525334</v>
       </c>
       <c r="R2">
-        <v>15.527675246211</v>
+        <v>24.796604911728</v>
       </c>
       <c r="S2">
-        <v>0.000394722620581112</v>
+        <v>0.0003540111655968074</v>
       </c>
       <c r="T2">
-        <v>0.000512042343735712</v>
+        <v>0.0004962224970951929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.822863000000001</v>
+        <v>5.804872666666667</v>
       </c>
       <c r="H3">
-        <v>14.468589</v>
+        <v>17.414618</v>
       </c>
       <c r="I3">
-        <v>0.01095411591491635</v>
+        <v>0.01255943365345522</v>
       </c>
       <c r="J3">
-        <v>0.0112404931114524</v>
+        <v>0.01307355317809625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P3">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q3">
-        <v>12.391002507344</v>
+        <v>14.91400269248356</v>
       </c>
       <c r="R3">
-        <v>111.519022566096</v>
+        <v>134.226024232352</v>
       </c>
       <c r="S3">
-        <v>0.002834879023031791</v>
+        <v>0.00191629101891469</v>
       </c>
       <c r="T3">
-        <v>0.003677463675690503</v>
+        <v>0.002686092437123725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.822863000000001</v>
+        <v>5.804872666666667</v>
       </c>
       <c r="H4">
-        <v>14.468589</v>
+        <v>17.414618</v>
       </c>
       <c r="I4">
-        <v>0.01095411591491635</v>
+        <v>0.01255943365345522</v>
       </c>
       <c r="J4">
-        <v>0.0112404931114524</v>
+        <v>0.01307355317809625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N4">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O4">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P4">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q4">
-        <v>2.542939720663</v>
+        <v>3.491936632293779</v>
       </c>
       <c r="R4">
-        <v>22.886457485967</v>
+        <v>31.427429690644</v>
       </c>
       <c r="S4">
-        <v>0.0005817871852313173</v>
+        <v>0.0004486767868465136</v>
       </c>
       <c r="T4">
-        <v>0.000754706364288618</v>
+        <v>0.0006289166478189535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.822863000000001</v>
+        <v>5.804872666666667</v>
       </c>
       <c r="H5">
-        <v>14.468589</v>
+        <v>17.414618</v>
       </c>
       <c r="I5">
-        <v>0.01095411591491635</v>
+        <v>0.01255943365345522</v>
       </c>
       <c r="J5">
-        <v>0.0112404931114524</v>
+        <v>0.01307355317809625</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N5">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O5">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P5">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q5">
-        <v>30.0157944299295</v>
+        <v>75.47553780170301</v>
       </c>
       <c r="R5">
-        <v>180.094766579577</v>
+        <v>452.8532268102181</v>
       </c>
       <c r="S5">
-        <v>0.006867172041859332</v>
+        <v>0.009697805359124191</v>
       </c>
       <c r="T5">
-        <v>0.005938825027683701</v>
+        <v>0.009062368006641857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.822863000000001</v>
+        <v>5.804872666666667</v>
       </c>
       <c r="H6">
-        <v>14.468589</v>
+        <v>17.414618</v>
       </c>
       <c r="I6">
-        <v>0.01095411591491635</v>
+        <v>0.01255943365345522</v>
       </c>
       <c r="J6">
-        <v>0.0112404931114524</v>
+        <v>0.01307355317809625</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N6">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O6">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P6">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q6">
-        <v>1.204426437958</v>
+        <v>1.110203182033111</v>
       </c>
       <c r="R6">
-        <v>10.839837941622</v>
+        <v>9.991828638297999</v>
       </c>
       <c r="S6">
-        <v>0.0002755550442127955</v>
+        <v>0.0001426493229730189</v>
       </c>
       <c r="T6">
-        <v>0.000357455700053865</v>
+        <v>0.0001999535894165269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>401.408793</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H7">
         <v>1204.226379</v>
       </c>
       <c r="I7">
-        <v>0.9117153955624826</v>
+        <v>0.868488835689139</v>
       </c>
       <c r="J7">
-        <v>0.9355506827776202</v>
+        <v>0.9040403644985378</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N7">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O7">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P7">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q7">
-        <v>143.597171746269</v>
+        <v>190.521458239176</v>
       </c>
       <c r="R7">
-        <v>1292.374545716421</v>
+        <v>1714.693124152584</v>
       </c>
       <c r="S7">
-        <v>0.03285291966561378</v>
+        <v>0.02447998480771802</v>
       </c>
       <c r="T7">
-        <v>0.04261748657671661</v>
+        <v>0.03431394365671887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>401.408793</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H8">
         <v>1204.226379</v>
       </c>
       <c r="I8">
-        <v>0.9117153955624826</v>
+        <v>0.868488835689139</v>
       </c>
       <c r="J8">
-        <v>0.9355506827776202</v>
+        <v>0.9040403644985378</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P8">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q8">
         <v>1031.308034363184</v>
       </c>
       <c r="R8">
-        <v>9281.772309268656</v>
+        <v>9281.772309268657</v>
       </c>
       <c r="S8">
-        <v>0.2359481011457739</v>
+        <v>0.1325121340484102</v>
       </c>
       <c r="T8">
-        <v>0.3060767546912007</v>
+        <v>0.1857441471995991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>401.408793</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H9">
         <v>1204.226379</v>
       </c>
       <c r="I9">
-        <v>0.9117153955624826</v>
+        <v>0.868488835689139</v>
       </c>
       <c r="J9">
-        <v>0.9355506827776202</v>
+        <v>0.9040403644985378</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N9">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O9">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P9">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q9">
-        <v>211.649877664593</v>
+        <v>241.4685298525981</v>
       </c>
       <c r="R9">
-        <v>1904.848898981337</v>
+        <v>2173.216768673382</v>
       </c>
       <c r="S9">
-        <v>0.04842237729053687</v>
+        <v>0.0310261426558729</v>
       </c>
       <c r="T9">
-        <v>0.06281450888372993</v>
+        <v>0.04348978642516515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>401.408793</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H10">
         <v>1204.226379</v>
       </c>
       <c r="I10">
-        <v>0.9117153955624826</v>
+        <v>0.868488835689139</v>
       </c>
       <c r="J10">
-        <v>0.9355506827776202</v>
+        <v>0.9040403644985378</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N10">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O10">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P10">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q10">
-        <v>2498.226429623674</v>
+        <v>5219.157468169697</v>
       </c>
       <c r="R10">
-        <v>14989.35857774204</v>
+        <v>31314.94480901819</v>
       </c>
       <c r="S10">
-        <v>0.5715574422591104</v>
+        <v>0.6706063280782225</v>
       </c>
       <c r="T10">
-        <v>0.4942907534799777</v>
+        <v>0.6266656328495849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>401.408793</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H11">
         <v>1204.226379</v>
       </c>
       <c r="I11">
-        <v>0.9117153955624826</v>
+        <v>0.868488835689139</v>
       </c>
       <c r="J11">
-        <v>0.9355506827776202</v>
+        <v>0.9040403644985378</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N11">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O11">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P11">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q11">
-        <v>100.244888299338</v>
+        <v>76.77090349349101</v>
       </c>
       <c r="R11">
-        <v>902.203994694042</v>
+        <v>690.938131441419</v>
       </c>
       <c r="S11">
-        <v>0.02293455520144774</v>
+        <v>0.009864246098915298</v>
       </c>
       <c r="T11">
-        <v>0.02975117914599523</v>
+        <v>0.01382685436746973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2543086666666667</v>
+        <v>0.2675976666666667</v>
       </c>
       <c r="H12">
-        <v>0.762926</v>
+        <v>0.8027930000000001</v>
       </c>
       <c r="I12">
-        <v>0.0005776084895703008</v>
+        <v>0.0005789748256871484</v>
       </c>
       <c r="J12">
-        <v>0.0005927091057426493</v>
+        <v>0.0006026751190582203</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N12">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O12">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P12">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q12">
-        <v>0.09097460225266668</v>
+        <v>0.1270104157253333</v>
       </c>
       <c r="R12">
-        <v>0.818771420274</v>
+        <v>1.143093741528</v>
       </c>
       <c r="S12">
-        <v>2.081365017898189E-05</v>
+        <v>1.631949007798837E-05</v>
       </c>
       <c r="T12">
-        <v>2.699989730421617E-05</v>
+        <v>2.287526186968564E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2543086666666667</v>
+        <v>0.2675976666666667</v>
       </c>
       <c r="H13">
-        <v>0.762926</v>
+        <v>0.8027930000000001</v>
       </c>
       <c r="I13">
-        <v>0.0005776084895703008</v>
+        <v>0.0005789748256871484</v>
       </c>
       <c r="J13">
-        <v>0.0005927091057426493</v>
+        <v>0.0006026751190582203</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P13">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q13">
-        <v>0.6533752516515555</v>
+        <v>0.6875176339502223</v>
       </c>
       <c r="R13">
-        <v>5.880377264863999</v>
+        <v>6.187658705552</v>
       </c>
       <c r="S13">
-        <v>0.0001494826422621827</v>
+        <v>8.833871727462413E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001939119738794054</v>
+        <v>0.000123825639234571</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2543086666666667</v>
+        <v>0.2675976666666667</v>
       </c>
       <c r="H14">
-        <v>0.762926</v>
+        <v>0.8027930000000001</v>
       </c>
       <c r="I14">
-        <v>0.0005776084895703008</v>
+        <v>0.0005789748256871484</v>
       </c>
       <c r="J14">
-        <v>0.0005927091057426493</v>
+        <v>0.0006026751190582203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N14">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O14">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P14">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q14">
-        <v>0.1340887372864445</v>
+        <v>0.1609740899771111</v>
       </c>
       <c r="R14">
-        <v>1.206798635578</v>
+        <v>1.448766809794</v>
       </c>
       <c r="S14">
-        <v>3.06775297909E-05</v>
+        <v>2.068346166093756E-05</v>
       </c>
       <c r="T14">
-        <v>3.979552585820622E-05</v>
+        <v>2.89923030440588E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2543086666666667</v>
+        <v>0.2675976666666667</v>
       </c>
       <c r="H15">
-        <v>0.762926</v>
+        <v>0.8027930000000001</v>
       </c>
       <c r="I15">
-        <v>0.0005776084895703008</v>
+        <v>0.0005789748256871484</v>
       </c>
       <c r="J15">
-        <v>0.0005927091057426493</v>
+        <v>0.0006026751190582203</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N15">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O15">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P15">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q15">
-        <v>1.582727243219667</v>
+        <v>3.479331755565501</v>
       </c>
       <c r="R15">
-        <v>9.496363459317999</v>
+        <v>20.875990533393</v>
       </c>
       <c r="S15">
-        <v>0.0003621047012398772</v>
+        <v>0.0004470571940003155</v>
       </c>
       <c r="T15">
-        <v>0.0003131531362920472</v>
+        <v>0.0004177642942932217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2675976666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.8027930000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0005789748256871484</v>
+      </c>
+      <c r="J16">
+        <v>0.0006026751190582203</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.2543086666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.762926</v>
-      </c>
-      <c r="I16">
-        <v>0.0005776084895703008</v>
-      </c>
-      <c r="J16">
-        <v>0.0005927091057426493</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N16">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O16">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P16">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q16">
-        <v>0.06350918148311112</v>
+        <v>0.05117903494144444</v>
       </c>
       <c r="R16">
-        <v>0.571582633348</v>
+        <v>0.460611314473</v>
       </c>
       <c r="S16">
-        <v>1.452996609835909E-05</v>
+        <v>6.575962673282801E-06</v>
       </c>
       <c r="T16">
-        <v>1.884857240877428E-05</v>
+        <v>9.217620616683172E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.6513055</v>
+        <v>54.5273455</v>
       </c>
       <c r="H17">
-        <v>67.302611</v>
+        <v>109.054691</v>
       </c>
       <c r="I17">
-        <v>0.07643184165406772</v>
+        <v>0.1179754694773575</v>
       </c>
       <c r="J17">
-        <v>0.0522866836101475</v>
+        <v>0.08186985796124582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N17">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O17">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P17">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q17">
-        <v>12.0381824704315</v>
+        <v>25.880423049356</v>
       </c>
       <c r="R17">
-        <v>72.229094822589</v>
+        <v>155.282538296136</v>
       </c>
       <c r="S17">
-        <v>0.002754158990818438</v>
+        <v>0.003325359615241889</v>
       </c>
       <c r="T17">
-        <v>0.002381834654089138</v>
+        <v>0.003107469316178205</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.6513055</v>
+        <v>54.5273455</v>
       </c>
       <c r="H18">
-        <v>67.302611</v>
+        <v>109.054691</v>
       </c>
       <c r="I18">
-        <v>0.07643184165406772</v>
+        <v>0.1179754694773575</v>
       </c>
       <c r="J18">
-        <v>0.0522866836101475</v>
+        <v>0.08186985796124582</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O18">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P18">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q18">
-        <v>86.45765198511732</v>
+        <v>140.0928193086373</v>
       </c>
       <c r="R18">
-        <v>518.745911910704</v>
+        <v>840.5569158518239</v>
       </c>
       <c r="S18">
-        <v>0.01978023843090387</v>
+        <v>0.0180004400556317</v>
       </c>
       <c r="T18">
-        <v>0.01710622281354651</v>
+        <v>0.0168209822763821</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.6513055</v>
+        <v>54.5273455</v>
       </c>
       <c r="H19">
-        <v>67.302611</v>
+        <v>109.054691</v>
       </c>
       <c r="I19">
-        <v>0.07643184165406772</v>
+        <v>0.1179754694773575</v>
       </c>
       <c r="J19">
-        <v>0.0522866836101475</v>
+        <v>0.08186985796124582</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N19">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O19">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P19">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q19">
-        <v>17.74324533127217</v>
+        <v>32.80107009177967</v>
       </c>
       <c r="R19">
-        <v>106.459471987633</v>
+        <v>196.806420550678</v>
       </c>
       <c r="S19">
-        <v>0.004059393415530183</v>
+        <v>0.004214589290596503</v>
       </c>
       <c r="T19">
-        <v>0.003510619373799418</v>
+        <v>0.003938433257201036</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.6513055</v>
+        <v>54.5273455</v>
       </c>
       <c r="H20">
-        <v>67.302611</v>
+        <v>109.054691</v>
       </c>
       <c r="I20">
-        <v>0.07643184165406772</v>
+        <v>0.1179754694773575</v>
       </c>
       <c r="J20">
-        <v>0.0522866836101475</v>
+        <v>0.08186985796124582</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N20">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O20">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P20">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q20">
-        <v>209.4338296955057</v>
+        <v>708.9700261892227</v>
       </c>
       <c r="R20">
-        <v>837.7353187820229</v>
+        <v>2835.880104756891</v>
       </c>
       <c r="S20">
-        <v>0.04791537812740423</v>
+        <v>0.09109512193871543</v>
       </c>
       <c r="T20">
-        <v>0.02762525292792962</v>
+        <v>0.05675081375271128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.6513055</v>
+        <v>54.5273455</v>
       </c>
       <c r="H21">
-        <v>67.302611</v>
+        <v>109.054691</v>
       </c>
       <c r="I21">
-        <v>0.07643184165406772</v>
+        <v>0.1179754694773575</v>
       </c>
       <c r="J21">
-        <v>0.0522866836101475</v>
+        <v>0.08186985796124582</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N21">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O21">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P21">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q21">
-        <v>8.403830259329666</v>
+        <v>10.42855476047517</v>
       </c>
       <c r="R21">
-        <v>50.422981555978</v>
+        <v>62.57132856285099</v>
       </c>
       <c r="S21">
-        <v>0.001922672689410996</v>
+        <v>0.001339958577171929</v>
       </c>
       <c r="T21">
-        <v>0.001662753840782813</v>
+        <v>0.001252159358773199</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1413463333333333</v>
+        <v>0.1836226666666667</v>
       </c>
       <c r="H22">
-        <v>0.424039</v>
+        <v>0.550868</v>
       </c>
       <c r="I22">
-        <v>0.0003210383789632294</v>
+        <v>0.0003972863543611218</v>
       </c>
       <c r="J22">
-        <v>0.0003294313950370118</v>
+        <v>0.0004135492430618649</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N22">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O22">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P22">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q22">
-        <v>0.05056424786233334</v>
+        <v>0.08715319352533334</v>
       </c>
       <c r="R22">
-        <v>0.455078230761</v>
+        <v>0.784378741728</v>
       </c>
       <c r="S22">
-        <v>1.156835578843204E-05</v>
+        <v>1.119826014960432E-05</v>
       </c>
       <c r="T22">
-        <v>1.500671028773763E-05</v>
+        <v>1.569676087812174E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1413463333333333</v>
+        <v>0.1836226666666667</v>
       </c>
       <c r="H23">
-        <v>0.424039</v>
+        <v>0.550868</v>
       </c>
       <c r="I23">
-        <v>0.0003210383789632294</v>
+        <v>0.0003972863543611218</v>
       </c>
       <c r="J23">
-        <v>0.0003294313950370118</v>
+        <v>0.0004135492430618649</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O23">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P23">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q23">
-        <v>0.3631500149884444</v>
+        <v>0.4717672724835555</v>
       </c>
       <c r="R23">
-        <v>3.268350134896</v>
+        <v>4.245905452352</v>
       </c>
       <c r="S23">
-        <v>8.308337917729071E-05</v>
+        <v>6.061708623223876E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001077774770971879</v>
+        <v>8.496783384243465E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1413463333333333</v>
+        <v>0.1836226666666667</v>
       </c>
       <c r="H24">
-        <v>0.424039</v>
+        <v>0.550868</v>
       </c>
       <c r="I24">
-        <v>0.0003210383789632294</v>
+        <v>0.0003972863543611218</v>
       </c>
       <c r="J24">
-        <v>0.0003294313950370118</v>
+        <v>0.0004135492430618649</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N24">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O24">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P24">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q24">
-        <v>0.07452735136855555</v>
+        <v>0.1104587047937778</v>
       </c>
       <c r="R24">
-        <v>0.670746162317</v>
+        <v>0.9941283431440001</v>
       </c>
       <c r="S24">
-        <v>1.705076122062093E-05</v>
+        <v>1.419277093626545E-05</v>
       </c>
       <c r="T24">
-        <v>2.211859995515674E-05</v>
+        <v>1.989420933325849E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1413463333333333</v>
+        <v>0.1836226666666667</v>
       </c>
       <c r="H25">
-        <v>0.424039</v>
+        <v>0.550868</v>
       </c>
       <c r="I25">
-        <v>0.0003210383789632294</v>
+        <v>0.0003972863543611218</v>
       </c>
       <c r="J25">
-        <v>0.0003294313950370118</v>
+        <v>0.0004135492430618649</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N25">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O25">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P25">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q25">
-        <v>0.8796896127378332</v>
+        <v>2.387480366078</v>
       </c>
       <c r="R25">
-        <v>5.278137676426999</v>
+        <v>14.324882196468</v>
       </c>
       <c r="S25">
-        <v>0.0002012600375515532</v>
+        <v>0.0003067658815467571</v>
       </c>
       <c r="T25">
-        <v>0.0001740524543142368</v>
+        <v>0.0002866654059872451</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1413463333333333</v>
+        <v>0.1836226666666667</v>
       </c>
       <c r="H26">
-        <v>0.424039</v>
+        <v>0.550868</v>
       </c>
       <c r="I26">
-        <v>0.0003210383789632294</v>
+        <v>0.0003972863543611218</v>
       </c>
       <c r="J26">
-        <v>0.0003294313950370118</v>
+        <v>0.0004135492430618649</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N26">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O26">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P26">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q26">
-        <v>0.03529879674688889</v>
+        <v>0.03511850828311111</v>
       </c>
       <c r="R26">
-        <v>0.317689170722</v>
+        <v>0.316066574548</v>
       </c>
       <c r="S26">
-        <v>8.075845225332585E-06</v>
+        <v>4.512355496256134E-06</v>
       </c>
       <c r="T26">
-        <v>1.047615338269273E-05</v>
+        <v>6.325033020804896E-06</v>
       </c>
     </row>
   </sheetData>
